--- a/public/imports/providers/users.xlsx
+++ b/public/imports/providers/users.xlsx
@@ -20,18 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">maron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matovuronald997@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Samson Kyozira</t>
   </si>
   <si>
     <t xml:space="preserve">Kireka</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of information technology and computing</t>
+    <t xml:space="preserve">Bachelor of Information Technology and Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matovu Ronald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kireka Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakibirige Ritah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mperwerwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Business Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sseguya Lawrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nansana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in Electrical and Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komamboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Killer</t>
   </si>
 </sst>
 </file>
@@ -41,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -62,13 +92,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,12 +136,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,19 +158,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -159,23 +178,73 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="0" t="n">
+        <v>256700196655</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>256756999607</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>256752571043</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>256750947920</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>256788281012</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="matovuronald997@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/imports/providers/users.xlsx
+++ b/public/imports/providers/users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">Samson Kyozira</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">Serial Killer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brenda nabatanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyambogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Economics and Statistics</t>
   </si>
 </sst>
 </file>
@@ -158,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,6 +253,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>256757227400</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/imports/providers/users.xlsx
+++ b/public/imports/providers/users.xlsx
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course</t>
+  </si>
   <si>
     <t xml:space="preserve">Samson Kyozira</t>
   </si>
@@ -71,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bachelor of Economics and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sseguya John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in Metal Works</t>
   </si>
 </sst>
 </file>
@@ -80,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +122,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,8 +173,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,42 +216,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>256700196655</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>256756999607</v>
+        <v>256700196655</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>256752571043</v>
+        <v>256756999607</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
@@ -227,44 +262,72 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>256750947920</v>
+        <v>256752571043</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>256788281012</v>
+        <v>256750947920</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>256788281012</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>256757227400</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>256772554007</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>256757227400</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/imports/providers/users.xlsx
+++ b/public/imports/providers/users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t xml:space="preserve">Certificate in Metal Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakiyaga Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakiyagasarah@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in sales</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +138,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,12 +194,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,7 +359,27 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>256772554002</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="nakiyagasarah@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
